--- a/biology/Zoologie/Innoxius_magnus/Innoxius_magnus.xlsx
+++ b/biology/Zoologie/Innoxius_magnus/Innoxius_magnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Innoxius magnus, unique représentant du genre Innoxius, est une espèce d'opilions laniatores de la famille des Stygnidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Mérida au Venezuela[1]. Elle se rencontre vers Libertador et Justo Briceño.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Mérida au Venezuela. Elle se rencontre vers Libertador et Justo Briceño.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le juvénile holotype mesure 6,7 mm[2].
-Le mâle décrit par  en mesure 5,92 mm et la femelle 5,83 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le juvénile holotype mesure 6,7 mm.
+Le mâle décrit par  en mesure 5,92 mm et la femelle 5,83 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenostygnus magnus par Caporiacco en 1951. Elle est placée dans le genre Innoxius par Pinto-da-Rocha en 1997[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenostygnus magnus par Caporiacco en 1951. Elle est placée dans le genre Innoxius par Pinto-da-Rocha en 1997.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Caporiacco, 1951 : « Studi sugli Aracnidi del Venezuela raccolti dalla Sezione di Biologia (Universitá Centrale del Venezuela). I Parte: Scorpiones, Opiliones, Solifuga y Chernetes. » Acta Biologica Venezuelica, vol. 1, p. 1–46.
 Pinto-da-Rocha, 1997 : « Systematic review of the Neotropical family Stygnidae (Opiliones, Laniatores, Gonyleptoidea). » Arquivos de Zoologia do Estado de São Paulo, vol. 33, no 4, p. 163–342.</t>
